--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABD/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABD/15/seed3/result_data_RandomForest.xlsx
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.547399999999989</v>
+        <v>-7.685899999999996</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.1138</v>
+        <v>-21.0817</v>
       </c>
       <c r="B8" t="n">
         <v>7.52</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-20.60349999999998</v>
+        <v>-20.43379999999997</v>
       </c>
       <c r="B10" t="n">
         <v>9.35</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.49900000000003</v>
+        <v>-22.50090000000003</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
@@ -652,7 +652,7 @@
         <v>-21.95</v>
       </c>
       <c r="B13" t="n">
-        <v>5.900400000000002</v>
+        <v>6.480099999999997</v>
       </c>
       <c r="C13" t="n">
         <v>-13.63</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.38810000000003</v>
+        <v>-22.46180000000003</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -777,7 +777,7 @@
         <v>-14.65</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.342599999999997</v>
+        <v>-8.250900000000001</v>
       </c>
       <c r="E20" t="n">
         <v>13.73</v>
